--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:I536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19113,6 +19113,41 @@
         <v>206000</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G536" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H536" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I536" t="n">
+        <v>306500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I536"/>
+  <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19148,6 +19148,41 @@
         <v>306500</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F537" t="n">
+        <v>2</v>
+      </c>
+      <c r="G537" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H537" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I537" t="n">
+        <v>450900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:I538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19183,6 +19183,41 @@
         <v>450900</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G538" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H538" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I538" t="n">
+        <v>302900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I538"/>
+  <dimension ref="A1:I539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19218,6 +19218,41 @@
         <v>302900</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H539" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I539" t="n">
+        <v>227500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:I540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19253,6 +19253,41 @@
         <v>227500</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H540" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I540" t="n">
+        <v>606400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I540"/>
+  <dimension ref="A1:I541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19288,6 +19288,41 @@
         <v>606400</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F541" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G541" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H541" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I541" t="n">
+        <v>168600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:I542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19323,6 +19323,41 @@
         <v>168600</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F542" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G542" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H542" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I542" t="n">
+        <v>421300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I542"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19358,6 +19358,41 @@
         <v>421300</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G543" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H543" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I543" t="n">
+        <v>352700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19393,6 +19393,41 @@
         <v>352700</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F544" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G544" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H544" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I544" t="n">
+        <v>1996700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19428,6 +19428,41 @@
         <v>1996700</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F545" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G545" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H545" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I545" t="n">
+        <v>1563200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I545"/>
+  <dimension ref="A1:I546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19463,6 +19463,41 @@
         <v>1563200</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I546" t="n">
+        <v>22862800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I546"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19498,6 +19498,41 @@
         <v>22862800</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I547" t="n">
+        <v>4320900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I547"/>
+  <dimension ref="A1:I549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19533,6 +19533,76 @@
         <v>4320900</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I548" t="n">
+        <v>11904500</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I549" t="n">
+        <v>5583800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I549"/>
+  <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19603,6 +19603,76 @@
         <v>5583800</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I550" t="n">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I551" t="n">
+        <v>2322300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I551"/>
+  <dimension ref="A1:I552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19673,6 +19673,41 @@
         <v>2322300</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I552" t="n">
+        <v>3516800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I552"/>
+  <dimension ref="A1:I553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19708,6 +19708,41 @@
         <v>3516800</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I553" t="n">
+        <v>6017500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I553"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19743,6 +19743,41 @@
         <v>6017500</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F554" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I554" t="n">
+        <v>5213000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I554"/>
+  <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19778,6 +19778,41 @@
         <v>5213000</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F555" t="n">
+        <v>1</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I555" t="n">
+        <v>4475400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I555"/>
+  <dimension ref="A1:I557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19813,6 +19813,76 @@
         <v>4475400</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2784100</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E557" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F557" t="n">
+        <v>1</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2567000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I557"/>
+  <dimension ref="A1:I558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19883,6 +19883,41 @@
         <v>2567000</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E558" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I558" t="n">
+        <v>1447700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:I559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19918,6 +19918,41 @@
         <v>1447700</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2676400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:I568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17400,11 +17400,11 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -17418,28 +17418,28 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>0.615</v>
+        <v>0.244</v>
       </c>
       <c r="F487" t="n">
-        <v>0.62</v>
+        <v>0.244</v>
       </c>
       <c r="G487" t="n">
-        <v>0.595</v>
+        <v>0.238</v>
       </c>
       <c r="H487" t="n">
-        <v>0.615</v>
+        <v>0.244</v>
       </c>
       <c r="I487" t="n">
-        <v>731300</v>
+        <v>1194500</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -17453,28 +17453,28 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>0.615</v>
+        <v>0.252</v>
       </c>
       <c r="F488" t="n">
-        <v>0.65</v>
+        <v>0.274</v>
       </c>
       <c r="G488" t="n">
-        <v>0.605</v>
+        <v>0.248</v>
       </c>
       <c r="H488" t="n">
-        <v>0.625</v>
+        <v>0.27</v>
       </c>
       <c r="I488" t="n">
-        <v>1523800</v>
+        <v>12739250</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -17488,28 +17488,28 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>0.62</v>
+        <v>0.27</v>
       </c>
       <c r="F489" t="n">
-        <v>0.63</v>
+        <v>0.27</v>
       </c>
       <c r="G489" t="n">
-        <v>0.61</v>
+        <v>0.256</v>
       </c>
       <c r="H489" t="n">
-        <v>0.62</v>
+        <v>0.264</v>
       </c>
       <c r="I489" t="n">
-        <v>669800</v>
+        <v>6632750</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17523,28 +17523,28 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>0.62</v>
+        <v>0.264</v>
       </c>
       <c r="F490" t="n">
-        <v>0.62</v>
+        <v>0.264</v>
       </c>
       <c r="G490" t="n">
-        <v>0.61</v>
+        <v>0.256</v>
       </c>
       <c r="H490" t="n">
-        <v>0.62</v>
+        <v>0.256</v>
       </c>
       <c r="I490" t="n">
-        <v>299800</v>
+        <v>904750</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17558,28 +17558,28 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>0.62</v>
+        <v>0.26</v>
       </c>
       <c r="F491" t="n">
-        <v>0.63</v>
+        <v>0.266</v>
       </c>
       <c r="G491" t="n">
-        <v>0.615</v>
+        <v>0.25</v>
       </c>
       <c r="H491" t="n">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="I491" t="n">
-        <v>596400</v>
+        <v>2047500</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17593,28 +17593,28 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>0.63</v>
+        <v>0.248</v>
       </c>
       <c r="F492" t="n">
-        <v>0.635</v>
+        <v>0.248</v>
       </c>
       <c r="G492" t="n">
-        <v>0.615</v>
+        <v>0.246</v>
       </c>
       <c r="H492" t="n">
-        <v>0.63</v>
+        <v>0.246</v>
       </c>
       <c r="I492" t="n">
-        <v>810900</v>
+        <v>703750</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17628,28 +17628,28 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>0.635</v>
+        <v>0.244</v>
       </c>
       <c r="F493" t="n">
-        <v>0.635</v>
+        <v>0.25</v>
       </c>
       <c r="G493" t="n">
-        <v>0.62</v>
+        <v>0.244</v>
       </c>
       <c r="H493" t="n">
-        <v>0.625</v>
+        <v>0.248</v>
       </c>
       <c r="I493" t="n">
-        <v>73200</v>
+        <v>291750</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17663,28 +17663,28 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>0.625</v>
+        <v>0.246</v>
       </c>
       <c r="F494" t="n">
-        <v>0.635</v>
+        <v>0.25</v>
       </c>
       <c r="G494" t="n">
-        <v>0.61</v>
+        <v>0.244</v>
       </c>
       <c r="H494" t="n">
-        <v>0.63</v>
+        <v>0.246</v>
       </c>
       <c r="I494" t="n">
-        <v>156500</v>
+        <v>736250</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17698,28 +17698,28 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>0.63</v>
+        <v>0.246</v>
       </c>
       <c r="F495" t="n">
-        <v>0.65</v>
+        <v>0.254</v>
       </c>
       <c r="G495" t="n">
-        <v>0.615</v>
+        <v>0.244</v>
       </c>
       <c r="H495" t="n">
-        <v>0.635</v>
+        <v>0.246</v>
       </c>
       <c r="I495" t="n">
-        <v>890000</v>
+        <v>587750</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17733,28 +17733,28 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.65</v>
+        <v>0.615</v>
       </c>
       <c r="F496" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="G496" t="n">
-        <v>0.65</v>
+        <v>0.595</v>
       </c>
       <c r="H496" t="n">
-        <v>0.68</v>
+        <v>0.615</v>
       </c>
       <c r="I496" t="n">
-        <v>1840200</v>
+        <v>731300</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17768,28 +17768,28 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>0.68</v>
+        <v>0.615</v>
       </c>
       <c r="F497" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="G497" t="n">
-        <v>0.665</v>
+        <v>0.605</v>
       </c>
       <c r="H497" t="n">
-        <v>0.675</v>
+        <v>0.625</v>
       </c>
       <c r="I497" t="n">
-        <v>643700</v>
+        <v>1523800</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17803,28 +17803,28 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="F498" t="n">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="G498" t="n">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="H498" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="I498" t="n">
-        <v>949200</v>
+        <v>669800</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17838,28 +17838,28 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>0.695</v>
+        <v>0.62</v>
       </c>
       <c r="F499" t="n">
-        <v>0.695</v>
+        <v>0.62</v>
       </c>
       <c r="G499" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="H499" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="I499" t="n">
-        <v>374400</v>
+        <v>299800</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17873,28 +17873,28 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>0.695</v>
+        <v>0.62</v>
       </c>
       <c r="F500" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="G500" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="H500" t="n">
-        <v>0.735</v>
+        <v>0.63</v>
       </c>
       <c r="I500" t="n">
-        <v>1769300</v>
+        <v>596400</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17908,28 +17908,28 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>0.725</v>
+        <v>0.63</v>
       </c>
       <c r="F501" t="n">
-        <v>0.8</v>
+        <v>0.635</v>
       </c>
       <c r="G501" t="n">
-        <v>0.725</v>
+        <v>0.615</v>
       </c>
       <c r="H501" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="I501" t="n">
-        <v>1591700</v>
+        <v>810900</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17943,28 +17943,28 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.79</v>
+        <v>0.635</v>
       </c>
       <c r="F502" t="n">
-        <v>0.84</v>
+        <v>0.635</v>
       </c>
       <c r="G502" t="n">
-        <v>0.785</v>
+        <v>0.62</v>
       </c>
       <c r="H502" t="n">
-        <v>0.825</v>
+        <v>0.625</v>
       </c>
       <c r="I502" t="n">
-        <v>1539000</v>
+        <v>73200</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17978,28 +17978,28 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>0.83</v>
+        <v>0.625</v>
       </c>
       <c r="F503" t="n">
-        <v>0.865</v>
+        <v>0.635</v>
       </c>
       <c r="G503" t="n">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="H503" t="n">
-        <v>0.845</v>
+        <v>0.63</v>
       </c>
       <c r="I503" t="n">
-        <v>713100</v>
+        <v>156500</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -18013,28 +18013,28 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>0.845</v>
+        <v>0.63</v>
       </c>
       <c r="F504" t="n">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="G504" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="H504" t="n">
-        <v>0.84</v>
+        <v>0.635</v>
       </c>
       <c r="I504" t="n">
-        <v>375000</v>
+        <v>890000</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -18048,28 +18048,28 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="F505" t="n">
-        <v>0.845</v>
+        <v>0.68</v>
       </c>
       <c r="G505" t="n">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="H505" t="n">
-        <v>0.835</v>
+        <v>0.68</v>
       </c>
       <c r="I505" t="n">
-        <v>52800</v>
+        <v>1840200</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -18083,28 +18083,28 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>0.835</v>
+        <v>0.68</v>
       </c>
       <c r="F506" t="n">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="G506" t="n">
-        <v>0.8</v>
+        <v>0.665</v>
       </c>
       <c r="H506" t="n">
-        <v>0.84</v>
+        <v>0.675</v>
       </c>
       <c r="I506" t="n">
-        <v>323400</v>
+        <v>643700</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -18118,28 +18118,28 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="F507" t="n">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="G507" t="n">
-        <v>0.835</v>
+        <v>0.67</v>
       </c>
       <c r="H507" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I507" t="n">
-        <v>1281700</v>
+        <v>949200</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -18153,28 +18153,28 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>0.93</v>
+        <v>0.695</v>
       </c>
       <c r="F508" t="n">
-        <v>0.97</v>
+        <v>0.695</v>
       </c>
       <c r="G508" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="H508" t="n">
-        <v>0.965</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="I508" t="n">
-        <v>1818600</v>
+        <v>374400</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -18188,28 +18188,28 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>0.965</v>
+        <v>0.695</v>
       </c>
       <c r="F509" t="n">
-        <v>1.06</v>
+        <v>0.75</v>
       </c>
       <c r="G509" t="n">
-        <v>0.96</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H509" t="n">
-        <v>1.02</v>
+        <v>0.735</v>
       </c>
       <c r="I509" t="n">
-        <v>5125100</v>
+        <v>1769300</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -18223,28 +18223,28 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1.02</v>
+        <v>0.725</v>
       </c>
       <c r="F510" t="n">
-        <v>1.13</v>
+        <v>0.8</v>
       </c>
       <c r="G510" t="n">
-        <v>1.01</v>
+        <v>0.725</v>
       </c>
       <c r="H510" t="n">
-        <v>1.09</v>
+        <v>0.78</v>
       </c>
       <c r="I510" t="n">
-        <v>1902400</v>
+        <v>1591700</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -18258,28 +18258,28 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1.09</v>
+        <v>0.79</v>
       </c>
       <c r="F511" t="n">
-        <v>1.24</v>
+        <v>0.84</v>
       </c>
       <c r="G511" t="n">
-        <v>1.04</v>
+        <v>0.785</v>
       </c>
       <c r="H511" t="n">
-        <v>1.22</v>
+        <v>0.825</v>
       </c>
       <c r="I511" t="n">
-        <v>1575100</v>
+        <v>1539000</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -18293,28 +18293,28 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1.24</v>
+        <v>0.83</v>
       </c>
       <c r="F512" t="n">
-        <v>1.43</v>
+        <v>0.865</v>
       </c>
       <c r="G512" t="n">
-        <v>1.19</v>
+        <v>0.83</v>
       </c>
       <c r="H512" t="n">
-        <v>1.28</v>
+        <v>0.845</v>
       </c>
       <c r="I512" t="n">
-        <v>3732900</v>
+        <v>713100</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -18328,28 +18328,28 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1.27</v>
+        <v>0.845</v>
       </c>
       <c r="F513" t="n">
-        <v>1.44</v>
+        <v>0.85</v>
       </c>
       <c r="G513" t="n">
-        <v>1.22</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H513" t="n">
-        <v>1.37</v>
+        <v>0.84</v>
       </c>
       <c r="I513" t="n">
-        <v>1865800</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -18363,28 +18363,28 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1.4</v>
+        <v>0.84</v>
       </c>
       <c r="F514" t="n">
-        <v>1.49</v>
+        <v>0.845</v>
       </c>
       <c r="G514" t="n">
-        <v>1.37</v>
+        <v>0.82</v>
       </c>
       <c r="H514" t="n">
-        <v>1.48</v>
+        <v>0.835</v>
       </c>
       <c r="I514" t="n">
-        <v>1975100</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -18398,28 +18398,28 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1.48</v>
+        <v>0.835</v>
       </c>
       <c r="F515" t="n">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="G515" t="n">
-        <v>1.38</v>
+        <v>0.8</v>
       </c>
       <c r="H515" t="n">
-        <v>1.41</v>
+        <v>0.84</v>
       </c>
       <c r="I515" t="n">
-        <v>1280600</v>
+        <v>323400</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -18433,28 +18433,28 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1.41</v>
+        <v>0.85</v>
       </c>
       <c r="F516" t="n">
-        <v>1.47</v>
+        <v>0.91</v>
       </c>
       <c r="G516" t="n">
-        <v>1.41</v>
+        <v>0.835</v>
       </c>
       <c r="H516" t="n">
-        <v>1.45</v>
+        <v>0.91</v>
       </c>
       <c r="I516" t="n">
-        <v>1140900</v>
+        <v>1281700</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -18468,28 +18468,28 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>1.46</v>
+        <v>0.93</v>
       </c>
       <c r="F517" t="n">
-        <v>1.47</v>
+        <v>0.97</v>
       </c>
       <c r="G517" t="n">
-        <v>1.41</v>
+        <v>0.93</v>
       </c>
       <c r="H517" t="n">
-        <v>1.47</v>
+        <v>0.965</v>
       </c>
       <c r="I517" t="n">
-        <v>730700</v>
+        <v>1818600</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -18503,28 +18503,28 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1.48</v>
+        <v>0.965</v>
       </c>
       <c r="F518" t="n">
-        <v>1.48</v>
+        <v>1.06</v>
       </c>
       <c r="G518" t="n">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="H518" t="n">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
       <c r="I518" t="n">
-        <v>297100</v>
+        <v>5125100</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18538,28 +18538,28 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
       <c r="F519" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="G519" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="H519" t="n">
-        <v>1.48</v>
+        <v>1.09</v>
       </c>
       <c r="I519" t="n">
-        <v>771600</v>
+        <v>1902400</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18573,28 +18573,28 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1.49</v>
+        <v>1.09</v>
       </c>
       <c r="F520" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="G520" t="n">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="H520" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="I520" t="n">
-        <v>2475800</v>
+        <v>1575100</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18608,28 +18608,28 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="F521" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="G521" t="n">
-        <v>1.65</v>
+        <v>1.19</v>
       </c>
       <c r="H521" t="n">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="I521" t="n">
-        <v>1629600</v>
+        <v>3732900</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18643,28 +18643,28 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="F522" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="G522" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="H522" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="I522" t="n">
-        <v>455400</v>
+        <v>1865800</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18678,28 +18678,28 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="F523" t="n">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="G523" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="H523" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="I523" t="n">
-        <v>240200</v>
+        <v>1975100</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18713,28 +18713,28 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="F524" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="G524" t="n">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="H524" t="n">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="I524" t="n">
-        <v>2595000</v>
+        <v>1280600</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18748,28 +18748,28 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="F525" t="n">
-        <v>1.82</v>
+        <v>1.47</v>
       </c>
       <c r="G525" t="n">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="H525" t="n">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="I525" t="n">
-        <v>243000</v>
+        <v>1140900</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18783,28 +18783,28 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="F526" t="n">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="G526" t="n">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="H526" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="I526" t="n">
-        <v>1147900</v>
+        <v>730700</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18818,28 +18818,28 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1.87</v>
+        <v>1.48</v>
       </c>
       <c r="F527" t="n">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="G527" t="n">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="H527" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="I527" t="n">
-        <v>514000</v>
+        <v>297100</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18853,28 +18853,28 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="F528" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G528" t="n">
-        <v>1.86</v>
+        <v>1.37</v>
       </c>
       <c r="H528" t="n">
-        <v>1.97</v>
+        <v>1.48</v>
       </c>
       <c r="I528" t="n">
-        <v>1035100</v>
+        <v>771600</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18888,28 +18888,28 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1.97</v>
+        <v>1.49</v>
       </c>
       <c r="F529" t="n">
-        <v>2.05</v>
+        <v>1.68</v>
       </c>
       <c r="G529" t="n">
-        <v>1.91</v>
+        <v>1.49</v>
       </c>
       <c r="H529" t="n">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="I529" t="n">
-        <v>1489200</v>
+        <v>2475800</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -18923,28 +18923,28 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="F530" t="n">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="G530" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="H530" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="I530" t="n">
-        <v>879800</v>
+        <v>1629600</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18958,28 +18958,28 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="F531" t="n">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="G531" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="H531" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="I531" t="n">
-        <v>494000</v>
+        <v>455400</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18993,28 +18993,28 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="F532" t="n">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="G532" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="H532" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="I532" t="n">
-        <v>436800</v>
+        <v>240200</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -19028,28 +19028,28 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="F533" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="G533" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="H533" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="I533" t="n">
-        <v>251600</v>
+        <v>2595000</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -19063,28 +19063,28 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="F534" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="G534" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="H534" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="I534" t="n">
-        <v>383300</v>
+        <v>243000</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -19098,28 +19098,28 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="F535" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G535" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="H535" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="I535" t="n">
-        <v>206000</v>
+        <v>1147900</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -19133,28 +19133,28 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="F536" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="G536" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="H536" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="I536" t="n">
-        <v>306500</v>
+        <v>514000</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -19168,28 +19168,28 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="F537" t="n">
         <v>2</v>
       </c>
       <c r="G537" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="H537" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="I537" t="n">
-        <v>450900</v>
+        <v>1035100</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -19203,28 +19203,28 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="F538" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="G538" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H538" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="I538" t="n">
-        <v>302900</v>
+        <v>1489200</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -19238,28 +19238,28 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="F539" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="G539" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="H539" t="n">
         <v>1.93</v>
       </c>
       <c r="I539" t="n">
-        <v>227500</v>
+        <v>879800</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -19273,28 +19273,28 @@
         </is>
       </c>
       <c r="E540" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H540" t="n">
         <v>1.91</v>
       </c>
-      <c r="F540" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G540" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H540" t="n">
-        <v>1.93</v>
-      </c>
       <c r="I540" t="n">
-        <v>606400</v>
+        <v>494000</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -19311,25 +19311,25 @@
         <v>1.91</v>
       </c>
       <c r="F541" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="G541" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H541" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="I541" t="n">
-        <v>168600</v>
+        <v>436800</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -19343,28 +19343,28 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="F542" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="G542" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="H542" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="I542" t="n">
-        <v>421300</v>
+        <v>251600</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -19378,28 +19378,28 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="F543" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="G543" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="H543" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="I543" t="n">
-        <v>352700</v>
+        <v>383300</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -19413,28 +19413,28 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F544" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="G544" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H544" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="I544" t="n">
-        <v>1996700</v>
+        <v>206000</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -19448,28 +19448,28 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="F545" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="G545" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="H545" t="n">
-        <v>2.15</v>
+        <v>1.96</v>
       </c>
       <c r="I545" t="n">
-        <v>1563200</v>
+        <v>306500</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -19483,28 +19483,28 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.895</v>
+        <v>1.98</v>
       </c>
       <c r="F546" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="G546" t="n">
-        <v>0.885</v>
+        <v>1.93</v>
       </c>
       <c r="H546" t="n">
-        <v>0.905</v>
+        <v>1.93</v>
       </c>
       <c r="I546" t="n">
-        <v>22862800</v>
+        <v>450900</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -19518,28 +19518,28 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.905</v>
+        <v>1.96</v>
       </c>
       <c r="F547" t="n">
-        <v>0.945</v>
+        <v>1.96</v>
       </c>
       <c r="G547" t="n">
-        <v>0.885</v>
+        <v>1.9</v>
       </c>
       <c r="H547" t="n">
-        <v>0.905</v>
+        <v>1.93</v>
       </c>
       <c r="I547" t="n">
-        <v>4320900</v>
+        <v>302900</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19553,28 +19553,28 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.895</v>
+        <v>1.93</v>
       </c>
       <c r="F548" t="n">
-        <v>0.9</v>
+        <v>1.93</v>
       </c>
       <c r="G548" t="n">
-        <v>0.605</v>
+        <v>1.91</v>
       </c>
       <c r="H548" t="n">
-        <v>0.795</v>
+        <v>1.93</v>
       </c>
       <c r="I548" t="n">
-        <v>11904500</v>
+        <v>227500</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19588,28 +19588,28 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>0.785</v>
+        <v>1.91</v>
       </c>
       <c r="F549" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.93</v>
       </c>
       <c r="G549" t="n">
-        <v>0.705</v>
+        <v>1.89</v>
       </c>
       <c r="H549" t="n">
-        <v>0.75</v>
+        <v>1.93</v>
       </c>
       <c r="I549" t="n">
-        <v>5583800</v>
+        <v>606400</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19623,28 +19623,28 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>0.75</v>
+        <v>1.91</v>
       </c>
       <c r="F550" t="n">
-        <v>0.78</v>
+        <v>1.94</v>
       </c>
       <c r="G550" t="n">
-        <v>0.72</v>
+        <v>1.88</v>
       </c>
       <c r="H550" t="n">
-        <v>0.745</v>
+        <v>1.9</v>
       </c>
       <c r="I550" t="n">
-        <v>2250000</v>
+        <v>168600</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19658,28 +19658,28 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>0.76</v>
+        <v>1.89</v>
       </c>
       <c r="F551" t="n">
-        <v>0.79</v>
+        <v>1.9</v>
       </c>
       <c r="G551" t="n">
-        <v>0.74</v>
+        <v>1.88</v>
       </c>
       <c r="H551" t="n">
-        <v>0.755</v>
+        <v>1.89</v>
       </c>
       <c r="I551" t="n">
-        <v>2322300</v>
+        <v>421300</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19693,28 +19693,28 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>0.75</v>
+        <v>1.89</v>
       </c>
       <c r="F552" t="n">
-        <v>0.89</v>
+        <v>1.93</v>
       </c>
       <c r="G552" t="n">
-        <v>0.74</v>
+        <v>1.89</v>
       </c>
       <c r="H552" t="n">
-        <v>0.865</v>
+        <v>1.93</v>
       </c>
       <c r="I552" t="n">
-        <v>3516800</v>
+        <v>352700</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19728,28 +19728,28 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.9</v>
+        <v>1.91</v>
       </c>
       <c r="F553" t="n">
-        <v>0.995</v>
+        <v>2.16</v>
       </c>
       <c r="G553" t="n">
-        <v>0.9</v>
+        <v>1.91</v>
       </c>
       <c r="H553" t="n">
-        <v>0.975</v>
+        <v>2.08</v>
       </c>
       <c r="I553" t="n">
-        <v>6017500</v>
+        <v>1996700</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19763,28 +19763,28 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>0.995</v>
+        <v>1.98</v>
       </c>
       <c r="F554" t="n">
-        <v>1.02</v>
+        <v>2.17</v>
       </c>
       <c r="G554" t="n">
-        <v>0.965</v>
+        <v>1.98</v>
       </c>
       <c r="H554" t="n">
-        <v>0.99</v>
+        <v>2.15</v>
       </c>
       <c r="I554" t="n">
-        <v>5213000</v>
+        <v>1563200</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19798,28 +19798,28 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>0.98</v>
+        <v>0.895</v>
       </c>
       <c r="F555" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G555" t="n">
-        <v>0.82</v>
+        <v>0.885</v>
       </c>
       <c r="H555" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.905</v>
       </c>
       <c r="I555" t="n">
-        <v>4475400</v>
+        <v>22862800</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19833,28 +19833,28 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.91</v>
+        <v>0.905</v>
       </c>
       <c r="F556" t="n">
-        <v>0.985</v>
+        <v>0.945</v>
       </c>
       <c r="G556" t="n">
-        <v>0.9</v>
+        <v>0.885</v>
       </c>
       <c r="H556" t="n">
-        <v>0.97</v>
+        <v>0.905</v>
       </c>
       <c r="I556" t="n">
-        <v>2784100</v>
+        <v>4320900</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19868,28 +19868,28 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.98</v>
+        <v>0.895</v>
       </c>
       <c r="F557" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G557" t="n">
-        <v>0.965</v>
+        <v>0.605</v>
       </c>
       <c r="H557" t="n">
-        <v>0.98</v>
+        <v>0.795</v>
       </c>
       <c r="I557" t="n">
-        <v>2567000</v>
+        <v>11904500</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19903,53 +19903,368 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>0.97</v>
+        <v>0.785</v>
       </c>
       <c r="F558" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G558" t="n">
-        <v>0.905</v>
+        <v>0.705</v>
       </c>
       <c r="H558" t="n">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="I558" t="n">
-        <v>1447700</v>
+        <v>5583800</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I560" t="n">
+        <v>2322300</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I561" t="n">
+        <v>3516800</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="I562" t="n">
+        <v>6017500</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="F563" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I563" t="n">
+        <v>5213000</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F564" t="n">
+        <v>1</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I564" t="n">
+        <v>4475400</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I565" t="n">
+        <v>2784100</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F566" t="n">
+        <v>1</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I566" t="n">
+        <v>2567000</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I567" t="n">
+        <v>1447700</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B559" t="inlineStr">
+      <c r="B568" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>0193</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>KAB</t>
-        </is>
-      </c>
-      <c r="E559" t="n">
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
         <v>0.895</v>
       </c>
-      <c r="F559" t="n">
+      <c r="F568" t="n">
         <v>0.9</v>
       </c>
-      <c r="G559" t="n">
+      <c r="G568" t="n">
         <v>0.84</v>
       </c>
-      <c r="H559" t="n">
+      <c r="H568" t="n">
         <v>0.895</v>
       </c>
-      <c r="I559" t="n">
+      <c r="I568" t="n">
         <v>2676400</v>
       </c>
     </row>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I568"/>
+  <dimension ref="A1:I569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20268,6 +20268,41 @@
         <v>2676400</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I569" t="n">
+        <v>1780000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I569"/>
+  <dimension ref="A1:I570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20303,6 +20303,41 @@
         <v>1780000</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I570" t="n">
+        <v>4883000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I570"/>
+  <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20338,6 +20338,41 @@
         <v>4883000</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I571" t="n">
+        <v>1102200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I571"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20373,6 +20373,41 @@
         <v>1102200</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I572" t="n">
+        <v>1657800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20408,6 +20408,41 @@
         <v>1657800</v>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I573" t="n">
+        <v>1828200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I573"/>
+  <dimension ref="A1:I574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20443,6 +20443,41 @@
         <v>1828200</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I574" t="n">
+        <v>370500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I574"/>
+  <dimension ref="A1:I575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20478,6 +20478,41 @@
         <v>370500</v>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I575" t="n">
+        <v>1500900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I575"/>
+  <dimension ref="A1:I576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20513,6 +20513,41 @@
         <v>1500900</v>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I576" t="n">
+        <v>2078600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I576"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20548,6 +20548,41 @@
         <v>2078600</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I577" t="n">
+        <v>1327600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20583,6 +20583,41 @@
         <v>1327600</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I578" t="n">
+        <v>1242200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I578"/>
+  <dimension ref="A1:I579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20618,6 +20618,41 @@
         <v>1242200</v>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I579" t="n">
+        <v>686800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I579"/>
+  <dimension ref="A1:I580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20653,6 +20653,41 @@
         <v>686800</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I580" t="n">
+        <v>2051100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I580"/>
+  <dimension ref="A1:I581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20688,6 +20688,41 @@
         <v>2051100</v>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I581" t="n">
+        <v>1030200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I581"/>
+  <dimension ref="A1:I582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20723,6 +20723,41 @@
         <v>1030200</v>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I582" t="n">
+        <v>326300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I582"/>
+  <dimension ref="A1:I583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20758,6 +20758,41 @@
         <v>326300</v>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I583" t="n">
+        <v>583500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I583"/>
+  <dimension ref="A1:I584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20793,6 +20793,41 @@
         <v>583500</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I584" t="n">
+        <v>328700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I584"/>
+  <dimension ref="A1:I585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20828,6 +20828,41 @@
         <v>328700</v>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E585" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I585" t="n">
+        <v>770300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I585"/>
+  <dimension ref="A1:I586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20863,6 +20863,41 @@
         <v>770300</v>
       </c>
     </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E586" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I586" t="n">
+        <v>888600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I586"/>
+  <dimension ref="A1:I587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20898,6 +20898,41 @@
         <v>888600</v>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G587" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I587" t="n">
+        <v>828300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I587"/>
+  <dimension ref="A1:I588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20933,6 +20933,41 @@
         <v>828300</v>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I588" t="n">
+        <v>282400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I588"/>
+  <dimension ref="A1:I589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20968,6 +20968,41 @@
         <v>282400</v>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I589" t="n">
+        <v>559500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I589"/>
+  <dimension ref="A1:I590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21003,6 +21003,41 @@
         <v>559500</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I590" t="n">
+        <v>1184900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I590"/>
+  <dimension ref="A1:I591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21038,6 +21038,41 @@
         <v>1184900</v>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I591" t="n">
+        <v>4426800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I591"/>
+  <dimension ref="A1:I592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21073,6 +21073,41 @@
         <v>4426800</v>
       </c>
     </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G592" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I592" t="n">
+        <v>1895800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I592"/>
+  <dimension ref="A1:I593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21108,6 +21108,41 @@
         <v>1895800</v>
       </c>
     </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E593" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G593" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I593" t="n">
+        <v>1709500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I593"/>
+  <dimension ref="A1:I595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21143,6 +21143,76 @@
         <v>1709500</v>
       </c>
     </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G594" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I594" t="n">
+        <v>1151100</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E595" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I595" t="n">
+        <v>784600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I595"/>
+  <dimension ref="A1:I596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21213,6 +21213,41 @@
         <v>784600</v>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E596" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I596" t="n">
+        <v>1149500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I596"/>
+  <dimension ref="A1:I599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21248,6 +21248,111 @@
         <v>1149500</v>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I597" t="n">
+        <v>582700</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I598" t="n">
+        <v>383000</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I599" t="n">
+        <v>516100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I599"/>
+  <dimension ref="A1:I600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21353,6 +21353,41 @@
         <v>516100</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I600" t="n">
+        <v>330700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I600"/>
+  <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21388,6 +21388,41 @@
         <v>330700</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I601" t="n">
+        <v>465400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0193.xlsx
+++ b/data/0193.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21423,6 +21423,111 @@
         <v>465400</v>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I602" t="n">
+        <v>277500</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G603" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I603" t="n">
+        <v>234200</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>KAB</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G604" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I604" t="n">
+        <v>616200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
